--- a/outcome/appendix/data/0_impact/Gonorrhea.xlsx
+++ b/outcome/appendix/data/0_impact/Gonorrhea.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>10452.4909788783</v>
+        <v>10452.4909500482</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -427,7 +427,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>8961.31412430769</v>
+        <v>8961.31411006458</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -445,7 +445,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>9274.87094939888</v>
+        <v>9274.87095236646</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -463,7 +463,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9530.2454130082</v>
+        <v>9530.24543912427</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -481,7 +481,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>9641.02015697699</v>
+        <v>9641.02012793748</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -499,7 +499,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>9057.40726500384</v>
+        <v>9057.40724404754</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -517,7 +517,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>9572.85870863877</v>
+        <v>9572.85863496385</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -535,7 +535,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>9536.89827138121</v>
+        <v>9536.89820837433</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -553,7 +553,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>9571.69619316822</v>
+        <v>9571.69609118228</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -571,7 +571,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>9158.77553067574</v>
+        <v>9158.77532358509</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -589,7 +589,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>9292.30356623116</v>
+        <v>9292.30328617427</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -607,7 +607,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>9382.61087254979</v>
+        <v>9382.61042647964</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -625,7 +625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9228.82097076755</v>
+        <v>9228.82025648148</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -643,7 +643,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>8738.68214599329</v>
+        <v>8738.68166683851</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -661,7 +661,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>8597.84494438921</v>
+        <v>8597.84456739884</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -679,7 +679,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8473.15463788836</v>
+        <v>8473.15424690944</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -697,7 +697,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>8372.82692608762</v>
+        <v>8372.82668361821</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -715,7 +715,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>8221.07982501622</v>
+        <v>8221.07981868735</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -733,7 +733,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>8303.92498997932</v>
+        <v>8303.92520125387</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -751,7 +751,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>8391.60255601542</v>
+        <v>8391.60272265197</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -769,7 +769,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>8460.92842810049</v>
+        <v>8460.92853322446</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -787,7 +787,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>8375.81788438498</v>
+        <v>8375.81793370424</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -805,7 +805,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>8414.33397330231</v>
+        <v>8414.33394882057</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -823,7 +823,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>8432.88220248176</v>
+        <v>8432.882067175</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>8390.42497174443</v>
+        <v>8390.42468231421</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -859,7 +859,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>8219.13274604231</v>
+        <v>8219.13248589003</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -877,7 +877,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>8132.09637128165</v>
+        <v>8132.09613791253</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -895,7 +895,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>8031.89898092622</v>
+        <v>8031.89875794295</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -913,7 +913,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>7939.24853087568</v>
+        <v>7939.24838732363</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -931,7 +931,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7860.06332788363</v>
+        <v>7860.06331039545</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -949,7 +949,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7866.08373436794</v>
+        <v>7866.0838345852</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -967,7 +967,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>7891.27648906118</v>
+        <v>7891.27662083163</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -985,7 +985,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7932.70646949156</v>
+        <v>7932.70660636758</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1003,7 +1003,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>7936.09983074231</v>
+        <v>7936.0999448319</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1021,7 +1021,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>7961.09587593539</v>
+        <v>7961.09594707536</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1039,7 +1039,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>7973.19357891474</v>
+        <v>7973.19359404389</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1057,7 +1057,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>7965.55234607974</v>
+        <v>7965.55229042154</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>7915.82122963125</v>
+        <v>7915.82115881173</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
